--- a/Simple Moving Average/результаты работы программы.xlsx
+++ b/Simple Moving Average/результаты работы программы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\source\repos\Simple Moving Average\Simple Moving Average\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6DDBE7-ECCF-490A-A256-2E3CD50D0F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722A2692-A481-40BC-90F8-9FEC68740CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,6 +204,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>float</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -292,6 +295,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>double</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -641,6 +647,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1548,7 +1585,7 @@
   <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1561,19 +1598,19 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Simple Moving Average/результаты работы программы.xlsx
+++ b/Simple Moving Average/результаты работы программы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\source\repos\Simple Moving Average\Simple Moving Average\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722A2692-A481-40BC-90F8-9FEC68740CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D08396E-8136-4F3C-A29A-E0DF904A5D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,22 +265,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1168220</c:v>
+                  <c:v>1215063</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1131213</c:v>
+                  <c:v>1253124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1070647</c:v>
+                  <c:v>1305463</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>950540</c:v>
+                  <c:v>1479244</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>805751</c:v>
+                  <c:v>1354928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>605250</c:v>
+                  <c:v>1283534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -356,22 +356,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1177852</c:v>
+                  <c:v>1396643</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1157399</c:v>
+                  <c:v>1451368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1090496</c:v>
+                  <c:v>1377389</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>979401</c:v>
+                  <c:v>1326218</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>822993</c:v>
+                  <c:v>1428481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>617586</c:v>
+                  <c:v>1312169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,8 +524,8 @@
         <c:axId val="569890848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1200000"/>
-          <c:min val="600000"/>
+          <c:max val="1500000"/>
+          <c:min val="1200000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1585,7 +1585,7 @@
   <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1619,10 +1619,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>1168220</v>
+        <v>1215063</v>
       </c>
       <c r="D4" s="1">
-        <v>1177852</v>
+        <v>1396643</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -1631,10 +1631,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>1131213</v>
+        <v>1253124</v>
       </c>
       <c r="D5" s="1">
-        <v>1157399</v>
+        <v>1451368</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -1643,10 +1643,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="1">
-        <v>1070647</v>
+        <v>1305463</v>
       </c>
       <c r="D6" s="1">
-        <v>1090496</v>
+        <v>1377389</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -1655,10 +1655,10 @@
         <v>32</v>
       </c>
       <c r="C7" s="1">
-        <v>950540</v>
+        <v>1479244</v>
       </c>
       <c r="D7" s="1">
-        <v>979401</v>
+        <v>1326218</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -1667,10 +1667,10 @@
         <v>64</v>
       </c>
       <c r="C8" s="1">
-        <v>805751</v>
+        <v>1354928</v>
       </c>
       <c r="D8" s="1">
-        <v>822993</v>
+        <v>1428481</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -1679,10 +1679,10 @@
         <v>128</v>
       </c>
       <c r="C9" s="1">
-        <v>605250</v>
+        <v>1283534</v>
       </c>
       <c r="D9" s="1">
-        <v>617586</v>
+        <v>1312169</v>
       </c>
     </row>
   </sheetData>
